--- a/words.xlsx
+++ b/words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nodirbek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nodirbek\Desktop\English for evolution\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="199">
   <si>
     <t>I</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>pomidor</t>
+  </si>
+  <si>
+    <t>qand</t>
+  </si>
+  <si>
+    <t>sweet</t>
   </si>
 </sst>
 </file>
@@ -932,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,6 +1750,14 @@
         <v>186</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
